--- a/webdocs/export/ai_template.xlsx
+++ b/webdocs/export/ai_template.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Documents/docs/卓尔航/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\vcs\git\github\wms\webdocs\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-5920" yWindow="-21140" windowWidth="38400" windowHeight="21140"/>
+    <workbookView xWindow="-5925" yWindow="-21135" windowWidth="38400" windowHeight="21135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="176">
   <si>
     <t>序号</t>
   </si>
@@ -558,12 +558,32 @@
   <si>
     <t>湖北省荆州市沙市区北京中路女人街红苹果城127</t>
   </si>
+  <si>
+    <t>15898807688</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>13570848285</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>15982245700</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>18218931565</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>13831306860</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,7 +625,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Inherit"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -619,6 +639,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -682,7 +708,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,9 +728,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -712,9 +735,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -728,9 +748,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -743,17 +760,60 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1046,21 +1106,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="57.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="57.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1070,17 +1130,17 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="17.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1090,17 +1150,17 @@
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6">
-        <v>15898807688</v>
-      </c>
-      <c r="E2" s="19">
+      <c r="D2" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="16">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="17.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1110,17 +1170,17 @@
       <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6">
-        <v>13570848285</v>
-      </c>
-      <c r="E3" s="19">
+      <c r="D3" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="16">
         <v>1</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="17.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1130,17 +1190,17 @@
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6">
-        <v>15982245700</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="D4" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="16">
         <v>2</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="17.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1150,17 +1210,17 @@
       <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6">
-        <v>18218931565</v>
-      </c>
-      <c r="E5" s="19">
+      <c r="D5" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="16">
         <v>3</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="17.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1170,1083 +1230,1083 @@
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="20">
         <v>17722946537</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="16">
         <v>4</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="17.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="20">
         <v>13927337877</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>2</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="17.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="20">
         <v>13506202280</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>2</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="17.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="20">
         <v>15862910555</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>5</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="17.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="20">
         <v>18698719819</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>3</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="17.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="20">
         <v>15207590895</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <v>1</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="17.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="20">
         <v>13577423468</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <v>2</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="17.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="20">
         <v>15977870391</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <v>2</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="17.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="20">
         <v>18056658246</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <v>5</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="17.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="20">
         <v>13855418558</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <v>1</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="17.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="20">
         <v>13421974304</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <v>1</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="17.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="20">
         <v>13574959106</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="9">
         <v>1</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="17.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="20">
         <v>15558383678</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="9">
         <v>10</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="17.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="20">
         <v>17789634918</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="9">
         <v>2</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="17.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="20">
         <v>13681188399</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="9">
         <v>2</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="17.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="20">
         <v>13520809129</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="9">
         <v>2</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="17.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="20">
         <v>15712195535</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="9">
         <v>3</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="17.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="20">
         <v>13961561080</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="9">
         <v>10</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="17.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="20">
         <v>15003725501</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="9">
         <v>17</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="17.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="20">
         <v>15003725501</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="9">
         <v>5</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="17.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="20">
         <v>17710793963</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="9">
         <v>2</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="15">
-        <v>13831306860</v>
-      </c>
-      <c r="E27" s="16">
+      <c r="D27" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" s="13">
         <v>2</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="18">
         <v>13831305599</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="13">
         <v>2</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="18">
         <v>13813641676</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="13">
         <v>5</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="18">
         <v>15365388265</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="13">
         <v>2</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="18">
         <v>13538161880</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="13">
         <v>1</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="18">
         <v>18606889691</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="13">
         <v>5</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="18">
         <v>18626112099</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="13">
         <v>20</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="18">
         <v>18098905325</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="13">
         <v>10</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="18">
         <v>13428966476</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>2</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="18">
         <v>13617383508</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="13">
         <v>20</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="18">
         <v>15251903836</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="13">
         <v>2</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="18">
         <v>13885447264</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="13">
         <v>2</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="18">
         <v>18550240350</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="13">
         <v>15</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="18">
         <v>18763375413</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="13">
         <v>2</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="18">
         <v>18756069220</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="13">
         <v>1</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="18">
         <v>15995453927</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="13">
         <v>4</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="18">
         <v>18476515203</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="13">
         <v>1</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="18">
         <v>13510140967</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="13">
         <v>1</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="18">
         <v>13875582686</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="13">
         <v>2</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="18">
         <v>18916929923</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="13">
         <v>5</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="18">
         <v>18916929923</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="13">
         <v>5</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" ht="15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="18">
         <v>18930102966</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="13">
         <v>5</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="F48" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" ht="15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="18">
         <v>13720528576</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="13">
         <v>3</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" ht="15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="18">
         <v>13886607059</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="13">
         <v>1</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" ht="15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="18">
         <v>18820726691</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="13">
         <v>5</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="F51" s="14" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" ht="15">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="18">
         <v>13570848285</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52" s="13">
         <v>5</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" ht="15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="18">
         <v>18688172966</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53" s="13">
         <v>1</v>
       </c>
-      <c r="F53" s="17" t="s">
+      <c r="F53" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" ht="15">
       <c r="A54" s="1">
         <v>54</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="18">
         <v>18628133565</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="13">
         <v>1</v>
       </c>
-      <c r="F54" s="17" t="s">
+      <c r="F54" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" ht="15">
       <c r="A55" s="1">
         <v>56</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="18">
         <v>18955995023</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E55" s="13">
         <v>1</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="F55" s="14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" ht="15">
       <c r="A56" s="1">
         <v>57</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="18">
         <v>17809589595</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E56" s="13">
         <v>2</v>
       </c>
-      <c r="F56" s="17" t="s">
+      <c r="F56" s="14" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" ht="15">
       <c r="A57" s="1">
         <v>58</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="18">
         <v>13507494897</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="13">
         <v>3</v>
       </c>
-      <c r="F57" s="17" t="s">
+      <c r="F57" s="14" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" ht="15">
       <c r="A58" s="1">
         <v>59</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="18">
         <v>15927761985</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E58" s="13">
         <v>5</v>
       </c>
-      <c r="F58" s="17" t="s">
+      <c r="F58" s="14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1">
       <c r="A66"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2260,7 +2320,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2274,10 +2334,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>